--- a/Data/ec_bp_master.xlsx
+++ b/Data/ec_bp_master.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Coding\R\Capstone\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{871D0702-6949-4585-8D26-B63452914655}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1D299D5-00C6-417E-BB67-D2E8F070787F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-9015" yWindow="4410" windowWidth="19200" windowHeight="14490" activeTab="1"/>
+    <workbookView xWindow="4020" yWindow="1740" windowWidth="19545" windowHeight="14325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ec_bp_eucast" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="108">
   <si>
     <t>antimicrobial</t>
   </si>
@@ -38,12 +38,6 @@
     <t>R &gt;</t>
   </si>
   <si>
-    <t>non-susceptible bp</t>
-  </si>
-  <si>
-    <t>resource</t>
-  </si>
-  <si>
     <t>ecoff</t>
   </si>
   <si>
@@ -54,9 +48,6 @@
   </si>
   <si>
     <t>aminoglycoside</t>
-  </si>
-  <si>
-    <t>eucast</t>
   </si>
   <si>
     <t>Amoxicillin-clavulanic acid</t>
@@ -359,7 +350,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1199,11 +1190,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I40"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1214,7 +1205,7 @@
     <col min="4" max="4" width="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1225,7 +1216,7 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="E1" t="s">
         <v>3</v>
@@ -1236,22 +1227,16 @@
       <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" t="s">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>6</v>
       </c>
-      <c r="I1" t="s">
+      <c r="B2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" t="s">
-        <v>9</v>
-      </c>
       <c r="C2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D2">
         <v>8</v>
@@ -1259,22 +1244,19 @@
       <c r="F2">
         <v>16</v>
       </c>
-      <c r="H2" t="s">
+      <c r="G2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
         <v>11</v>
-      </c>
-      <c r="I2">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" t="s">
-        <v>14</v>
       </c>
       <c r="D3">
         <v>32</v>
@@ -1282,65 +1264,56 @@
       <c r="F3">
         <v>32</v>
       </c>
-      <c r="H3" t="s">
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="D4">
+        <v>8</v>
+      </c>
+      <c r="F4">
+        <v>8</v>
+      </c>
+      <c r="G4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" t="s">
         <v>15</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5">
+        <v>8</v>
+      </c>
+      <c r="F5">
+        <v>8</v>
+      </c>
+      <c r="G5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>16</v>
       </c>
-      <c r="C4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4">
-        <v>8</v>
-      </c>
-      <c r="F4">
-        <v>8</v>
-      </c>
-      <c r="H4" t="s">
-        <v>11</v>
-      </c>
-      <c r="I4">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="B6" t="s">
         <v>17</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C6" t="s">
         <v>18</v>
-      </c>
-      <c r="C5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5">
-        <v>8</v>
-      </c>
-      <c r="F5">
-        <v>8</v>
-      </c>
-      <c r="H5" t="s">
-        <v>11</v>
-      </c>
-      <c r="I5">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" t="s">
-        <v>21</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -1348,33 +1321,30 @@
       <c r="F6">
         <v>4</v>
       </c>
-      <c r="H6" t="s">
-        <v>11</v>
-      </c>
-      <c r="I6">
+      <c r="G6">
         <v>0.25</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>22</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B8" t="s">
         <v>23</v>
       </c>
-      <c r="C7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>25</v>
-      </c>
-      <c r="B8" t="s">
-        <v>26</v>
-      </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D8">
         <v>1</v>
@@ -1382,36 +1352,33 @@
       <c r="F8">
         <v>4</v>
       </c>
-      <c r="H8" t="s">
-        <v>11</v>
-      </c>
-      <c r="I8">
+      <c r="G8">
         <v>0.125</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>21</v>
+      </c>
+      <c r="G9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" t="s">
         <v>27</v>
       </c>
-      <c r="B9" t="s">
-        <v>28</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="I9">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>29</v>
-      </c>
-      <c r="B10" t="s">
-        <v>30</v>
-      </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D10">
         <v>0.5</v>
@@ -1419,22 +1386,19 @@
       <c r="F10">
         <v>0.5</v>
       </c>
-      <c r="H10" t="s">
-        <v>11</v>
-      </c>
-      <c r="I10">
+      <c r="G10">
         <v>0.5</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B11" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D11">
         <v>1</v>
@@ -1442,42 +1406,36 @@
       <c r="F11">
         <v>4</v>
       </c>
-      <c r="H11" t="s">
-        <v>11</v>
-      </c>
-      <c r="I11">
+      <c r="G11">
         <v>0.5</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12">
+        <v>8</v>
+      </c>
+      <c r="F12">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13" t="s">
         <v>33</v>
       </c>
-      <c r="B12" t="s">
-        <v>34</v>
-      </c>
-      <c r="C12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12">
-        <v>8</v>
-      </c>
-      <c r="F12">
-        <v>8</v>
-      </c>
-      <c r="H12" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>35</v>
-      </c>
-      <c r="B13" t="s">
-        <v>36</v>
-      </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D13">
         <v>1</v>
@@ -1485,22 +1443,19 @@
       <c r="F13">
         <v>1</v>
       </c>
-      <c r="H13" t="s">
-        <v>11</v>
-      </c>
-      <c r="I13">
+      <c r="G13">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B14" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D14">
         <v>1</v>
@@ -1508,45 +1463,39 @@
       <c r="F14">
         <v>2</v>
       </c>
-      <c r="H14" t="s">
-        <v>11</v>
-      </c>
-      <c r="I14">
+      <c r="G14">
         <v>0.125</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>36</v>
+      </c>
+      <c r="B15" t="s">
+        <v>37</v>
+      </c>
+      <c r="C15" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15">
+        <v>8</v>
+      </c>
+      <c r="F15">
+        <v>8</v>
+      </c>
+      <c r="G15">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>38</v>
+      </c>
+      <c r="B16" t="s">
         <v>39</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C16" t="s">
         <v>40</v>
-      </c>
-      <c r="C15" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15">
-        <v>8</v>
-      </c>
-      <c r="F15">
-        <v>8</v>
-      </c>
-      <c r="H15" t="s">
-        <v>11</v>
-      </c>
-      <c r="I15">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>41</v>
-      </c>
-      <c r="B16" t="s">
-        <v>42</v>
-      </c>
-      <c r="C16" t="s">
-        <v>43</v>
       </c>
       <c r="D16">
         <v>0.25</v>
@@ -1554,22 +1503,19 @@
       <c r="F16">
         <v>0.5</v>
       </c>
-      <c r="H16" t="s">
-        <v>11</v>
-      </c>
-      <c r="I16">
+      <c r="G16">
         <v>6.4000000000000001E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B17" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C17" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D17">
         <v>2</v>
@@ -1577,22 +1523,19 @@
       <c r="F17">
         <v>2</v>
       </c>
-      <c r="H17" t="s">
-        <v>11</v>
-      </c>
-      <c r="I17">
+      <c r="G17">
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B18" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C18" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D18">
         <v>1</v>
@@ -1600,36 +1543,33 @@
       <c r="F18">
         <v>2</v>
       </c>
-      <c r="H18" t="s">
-        <v>11</v>
-      </c>
-      <c r="I18">
+      <c r="G18">
         <v>0.125</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
+        <v>47</v>
+      </c>
+      <c r="B19" t="s">
+        <v>48</v>
+      </c>
+      <c r="C19" t="s">
+        <v>49</v>
+      </c>
+      <c r="G19">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>50</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B20" t="s">
         <v>51</v>
       </c>
-      <c r="C19" t="s">
-        <v>52</v>
-      </c>
-      <c r="I19">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>53</v>
-      </c>
-      <c r="B20" t="s">
-        <v>54</v>
-      </c>
       <c r="C20" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D20">
         <v>0.5</v>
@@ -1637,30 +1577,27 @@
       <c r="F20">
         <v>1</v>
       </c>
-      <c r="H20" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
+        <v>52</v>
+      </c>
+      <c r="B21" t="s">
+        <v>53</v>
+      </c>
+      <c r="C21" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>55</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B22" t="s">
         <v>56</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C22" t="s">
         <v>57</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>58</v>
-      </c>
-      <c r="B22" t="s">
-        <v>59</v>
-      </c>
-      <c r="C22" t="s">
-        <v>60</v>
       </c>
       <c r="D22">
         <v>2</v>
@@ -1668,22 +1605,19 @@
       <c r="F22">
         <v>4</v>
       </c>
-      <c r="H22" t="s">
-        <v>11</v>
-      </c>
-      <c r="I22">
+      <c r="G22">
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B23" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C23" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D23">
         <v>2</v>
@@ -1691,22 +1625,19 @@
       <c r="F23">
         <v>8</v>
       </c>
-      <c r="H23" t="s">
-        <v>11</v>
-      </c>
-      <c r="I23">
+      <c r="G23">
         <v>0.5</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B24" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C24" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D24">
         <v>0.5</v>
@@ -1714,22 +1645,19 @@
       <c r="F24">
         <v>1</v>
       </c>
-      <c r="H24" t="s">
-        <v>11</v>
-      </c>
-      <c r="I24">
+      <c r="G24">
         <v>0.25</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B25" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C25" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D25">
         <v>2</v>
@@ -1737,97 +1665,94 @@
       <c r="F25">
         <v>8</v>
       </c>
-      <c r="H25" t="s">
+      <c r="G25">
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>64</v>
+      </c>
+      <c r="B26" t="s">
+        <v>65</v>
+      </c>
+      <c r="C26" t="s">
+        <v>66</v>
+      </c>
+      <c r="G26">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>67</v>
+      </c>
+      <c r="B27" t="s">
+        <v>68</v>
+      </c>
+      <c r="C27" t="s">
+        <v>40</v>
+      </c>
+      <c r="G27">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>69</v>
+      </c>
+      <c r="B28" t="s">
+        <v>70</v>
+      </c>
+      <c r="C28" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>72</v>
+      </c>
+      <c r="B29" t="s">
+        <v>73</v>
+      </c>
+      <c r="C29" t="s">
+        <v>74</v>
+      </c>
+      <c r="G29">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>75</v>
+      </c>
+      <c r="B30" t="s">
+        <v>76</v>
+      </c>
+      <c r="C30" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>77</v>
+      </c>
+      <c r="B31" t="s">
+        <v>78</v>
+      </c>
+      <c r="C31" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>80</v>
+      </c>
+      <c r="B32" t="s">
+        <v>81</v>
+      </c>
+      <c r="C32" t="s">
         <v>11</v>
-      </c>
-      <c r="I25">
-        <v>0.125</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>67</v>
-      </c>
-      <c r="B26" t="s">
-        <v>68</v>
-      </c>
-      <c r="C26" t="s">
-        <v>69</v>
-      </c>
-      <c r="I26">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>70</v>
-      </c>
-      <c r="B27" t="s">
-        <v>71</v>
-      </c>
-      <c r="C27" t="s">
-        <v>43</v>
-      </c>
-      <c r="I27">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>72</v>
-      </c>
-      <c r="B28" t="s">
-        <v>73</v>
-      </c>
-      <c r="C28" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>75</v>
-      </c>
-      <c r="B29" t="s">
-        <v>76</v>
-      </c>
-      <c r="C29" t="s">
-        <v>77</v>
-      </c>
-      <c r="I29">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>78</v>
-      </c>
-      <c r="B30" t="s">
-        <v>79</v>
-      </c>
-      <c r="C30" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>80</v>
-      </c>
-      <c r="B31" t="s">
-        <v>81</v>
-      </c>
-      <c r="C31" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>83</v>
-      </c>
-      <c r="B32" t="s">
-        <v>84</v>
-      </c>
-      <c r="C32" t="s">
-        <v>14</v>
       </c>
       <c r="D32">
         <v>8</v>
@@ -1835,22 +1760,19 @@
       <c r="F32">
         <v>16</v>
       </c>
-      <c r="H32" t="s">
+      <c r="G32">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>82</v>
+      </c>
+      <c r="B33" t="s">
+        <v>83</v>
+      </c>
+      <c r="C33" t="s">
         <v>11</v>
-      </c>
-      <c r="I32">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>85</v>
-      </c>
-      <c r="B33" t="s">
-        <v>86</v>
-      </c>
-      <c r="C33" t="s">
-        <v>14</v>
       </c>
       <c r="D33">
         <v>8</v>
@@ -1858,55 +1780,52 @@
       <c r="F33">
         <v>16</v>
       </c>
-      <c r="H33" t="s">
+      <c r="G33">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>84</v>
+      </c>
+      <c r="B34" t="s">
+        <v>85</v>
+      </c>
+      <c r="C34" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>86</v>
+      </c>
+      <c r="C35" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>88</v>
+      </c>
+      <c r="B36" t="s">
+        <v>89</v>
+      </c>
+      <c r="C36" t="s">
+        <v>90</v>
+      </c>
+      <c r="G36">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>91</v>
+      </c>
+      <c r="B37" t="s">
+        <v>92</v>
+      </c>
+      <c r="C37" t="s">
         <v>11</v>
-      </c>
-      <c r="I33">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>87</v>
-      </c>
-      <c r="B34" t="s">
-        <v>88</v>
-      </c>
-      <c r="C34" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>89</v>
-      </c>
-      <c r="C35" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>91</v>
-      </c>
-      <c r="B36" t="s">
-        <v>92</v>
-      </c>
-      <c r="C36" t="s">
-        <v>93</v>
-      </c>
-      <c r="I36">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>94</v>
-      </c>
-      <c r="B37" t="s">
-        <v>95</v>
-      </c>
-      <c r="C37" t="s">
-        <v>14</v>
       </c>
       <c r="D37">
         <v>8</v>
@@ -1914,22 +1833,19 @@
       <c r="F37">
         <v>16</v>
       </c>
-      <c r="H37" t="s">
-        <v>11</v>
-      </c>
-      <c r="I37">
+      <c r="G37">
         <v>16</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B38" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C38" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D38">
         <v>1</v>
@@ -1937,22 +1853,19 @@
       <c r="F38">
         <v>2</v>
       </c>
-      <c r="H38" t="s">
-        <v>11</v>
-      </c>
-      <c r="I38">
+      <c r="G38">
         <v>0.5</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B39" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C39" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D39">
         <v>2</v>
@@ -1960,22 +1873,19 @@
       <c r="F39">
         <v>4</v>
       </c>
-      <c r="H39" t="s">
-        <v>11</v>
-      </c>
-      <c r="I39">
+      <c r="G39">
         <v>4</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B40" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C40" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D40">
         <v>2</v>
@@ -1983,10 +1893,7 @@
       <c r="F40">
         <v>4</v>
       </c>
-      <c r="H40" t="s">
-        <v>11</v>
-      </c>
-      <c r="I40">
+      <c r="G40">
         <v>0.25</v>
       </c>
     </row>
@@ -1997,11 +1904,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G39" sqref="G39"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2023,27 +1930,27 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F1" t="s">
+        <v>103</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>104</v>
-      </c>
-      <c r="E1" t="s">
-        <v>105</v>
-      </c>
-      <c r="F1" t="s">
-        <v>106</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D2">
         <v>16</v>
@@ -2057,13 +1964,13 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D3">
         <v>8</v>
@@ -2077,13 +1984,13 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D4">
         <v>8</v>
@@ -2097,13 +2004,13 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D5">
         <v>8</v>
@@ -2117,13 +2024,13 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D6">
         <v>4</v>
@@ -2137,13 +2044,13 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D7">
         <v>2</v>
@@ -2157,13 +2064,13 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D8">
         <v>2</v>
@@ -2172,18 +2079,18 @@
         <v>16</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B9" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D9">
         <v>8</v>
@@ -2197,13 +2104,13 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B10" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D10">
         <v>0.5</v>
@@ -2217,13 +2124,13 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B11" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D11">
         <v>4</v>
@@ -2237,13 +2144,13 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B12" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D12">
         <v>8</v>
@@ -2254,13 +2161,13 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B13" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D13">
         <v>2</v>
@@ -2274,13 +2181,13 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B14" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D14">
         <v>1</v>
@@ -2294,13 +2201,13 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B15" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C15" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D15">
         <v>8</v>
@@ -2314,13 +2221,13 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B16" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C16" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D16">
         <v>0.25</v>
@@ -2334,16 +2241,16 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B17" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C17" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E17" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="F17">
         <v>4</v>
@@ -2351,13 +2258,13 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B18" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C18" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D18">
         <v>1</v>
@@ -2371,13 +2278,13 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B19" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C19" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D19">
         <v>4</v>
@@ -2391,13 +2298,13 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B20" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C20" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D20">
         <v>0.5</v>
@@ -2411,24 +2318,24 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B21" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C21" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B22" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C22" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D22">
         <v>4</v>
@@ -2442,13 +2349,13 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B23" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C23" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D23">
         <v>1</v>
@@ -2462,13 +2369,13 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B24" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C24" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D24">
         <v>0.25</v>
@@ -2482,13 +2389,13 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B25" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C25" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D25">
         <v>1</v>
@@ -2502,13 +2409,13 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B26" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C26" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D26">
         <v>4</v>
@@ -2522,35 +2429,35 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B27" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C27" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B28" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C28" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B29" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C29" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D29">
         <v>16</v>
@@ -2561,41 +2468,41 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B30" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C30" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B31" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C31" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B32" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C32" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D32">
         <v>16</v>
       </c>
       <c r="E32" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="F32">
         <v>128</v>
@@ -2603,19 +2510,19 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B33" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C33" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D33">
         <v>16</v>
       </c>
       <c r="E33" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="F33">
         <v>128</v>
@@ -2623,16 +2530,16 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B34" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C34" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E34" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="F34">
         <v>4</v>
@@ -2640,21 +2547,21 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C35" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B36" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C36" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D36">
         <v>4</v>
@@ -2668,19 +2575,19 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B37" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C37" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D37">
         <v>16</v>
       </c>
       <c r="E37" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="F37">
         <v>128</v>
@@ -2688,24 +2595,24 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B38" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C38" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B39" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C39" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D39">
         <v>4</v>
@@ -2719,13 +2626,13 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B40" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C40" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D40">
         <v>2</v>
